--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>SEO Трафик (СТ)</t>
   </si>
@@ -108,6 +108,109 @@
   </si>
   <si>
     <t>domain</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>seoOfferHref</t>
+  </si>
+  <si>
+    <t>contextOfferHref</t>
+  </si>
+  <si>
+    <t>[
+    "seooffer",
+    "semcore",
+    "contextoffer",
+    "terec",
+    "metatags",
+    "trafficforecast",
+    "timetotopforecast",
+    "conversionforecast",
+    "textgeneration",
+    "tonalityforecast",
+    "clientreport",
+    "siteaudit",
+    "filterrivals",
+    "socialseo"
+]</t>
+  </si>
+  <si>
+    <t>[
+    "seooffer",
+    "semcore",
+    "terec",
+    "metatags",
+    "trafficforecast",
+    "timetotopforecast",
+    "conversionforecast",
+    "textgeneration",
+    "siteaudit",
+    "filterrivals"
+]</t>
+  </si>
+  <si>
+    <t>[
+    "semcore",
+    "contextoffer",
+    "trafficforecast",
+    "conversionforecast",
+    "textgeneration",
+    "clientreport"
+]</t>
+  </si>
+  <si>
+    <t>[
+    "terec",
+    "metatags"
+]</t>
+  </si>
+  <si>
+    <t>[
+    "seooffer",
+    "semcore",
+    "terec",
+    "metatags",
+    "trafficforecast",
+    "timetotopforecast",
+    "conversionforecast",
+    "clientreport",
+    "siteaudit",
+    "filterrivals"
+]</t>
+  </si>
+  <si>
+    <t>[
+    "seooffer",
+    "semcore",
+    "terec",
+    "metatags",
+    "trafficforecast",
+    "timetotopforecast",
+    "conversionforecast",
+    "textgeneration",
+    "tonalityforecast",
+    "siteaudit",
+    "filterrivals",
+    "socialseo"
+]</t>
+  </si>
+  <si>
+    <t>[
+    "tonalityforecast",
+    "clientreport",
+    "socialseo"
+]</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>Максимум трафика</t>
+  </si>
+  <si>
+    <t>Высокие позиции по ВЧ запросам</t>
   </si>
 </sst>
 </file>
@@ -143,8 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +526,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -443,162 +555,328 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>2637866</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain="&amp;C2&amp;"&amp;service="&amp;B2&amp;"&amp;projectId="&amp;D2&amp;"&amp;strategy="&amp;H2</f>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=sintec-masla.ru&amp;service=Стратегия&amp;projectId=2637866&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain="&amp;C2&amp;"&amp;service="&amp;B2&amp;"&amp;projectId="&amp;D2&amp;"&amp;strategy="&amp;H2</f>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=sintec-masla.ru&amp;service=Стратегия&amp;projectId=2637866&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2638406</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F13" si="1">"http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain="&amp;C3&amp;"&amp;service="&amp;B3&amp;"&amp;projectId="&amp;D3&amp;"&amp;strategy="&amp;H3</f>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=spaonegin.ru&amp;service=SEO Трафик (СТ)&amp;projectId=2638406&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=spaonegin.ru&amp;service=SEO Трафик (СТ)&amp;projectId=2638406&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>2638389</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=americanlg.ru&amp;service=Актив Трафик (АТ)&amp;projectId=2638389&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=americanlg.ru&amp;service=Актив Трафик (АТ)&amp;projectId=2638389&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>2638381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5">
+        <v>2638381</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=vcgallery.ru&amp;service=Веб-аналитика&amp;projectId=2638381&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=vcgallery.ru&amp;service=Веб-аналитика&amp;projectId=2638381&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>2638360</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=vcgallery.ru&amp;service=Веб-поддержка&amp;projectId=2638360&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=vcgallery.ru&amp;service=Веб-поддержка&amp;projectId=2638360&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2638355</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=club60sec.ru&amp;service=Контекстная реклама&amp;projectId=2638355&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=club60sec.ru&amp;service=Контекстная реклама&amp;projectId=2638355&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2638340</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=granfest.ru&amp;service=КПК&amp;projectId=2638340&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=granfest.ru&amp;service=КПК&amp;projectId=2638340&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2638125</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=discountsnab.ru&amp;service=Поисковое продвижение&amp;projectId=2638125&amp;strategy=Высокие позиции по ВЧ запросам</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain="&amp;C9&amp;"&amp;service="&amp;B9&amp;"&amp;projectId="&amp;D9&amp;"&amp;strategy="&amp;H9</f>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=discountsnab.ru&amp;service=Поисковое продвижение&amp;projectId=2638125&amp;strategy=Высокие позиции по ВЧ запросам</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2638078</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=sshaped.ru&amp;service=Продвижение в соц. сетях&amp;projectId=2638078&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G13" si="2">"http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain="&amp;C10&amp;"&amp;service="&amp;B10&amp;"&amp;projectId="&amp;D10&amp;"&amp;strategy="&amp;H10</f>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=sshaped.ru&amp;service=Продвижение в соц. сетях&amp;projectId=2638078&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2638077</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=club60sec.ru&amp;service=Реклама в сети Интернет&amp;projectId=2638077&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=club60sec.ru&amp;service=Реклама в сети Интернет&amp;projectId=2638077&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>2637872</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>2637866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=domvesta.ru&amp;service=РК в ПС&amp;projectId=2637872&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=domvesta.ru&amp;service=РК в ПС&amp;projectId=2637872&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -610,6 +888,20 @@
       </c>
       <c r="D13">
         <v>2637865</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>http://192.168.10.55:1235/Offers/offer/5d6935567e76801af86374b0/keywords?domain=lifeproof-store.ru&amp;service=SERM&amp;projectId=2637865&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>http://192.168.10.55:9004/CommerceOffer/CommerceOffer?siteId=208826&amp;domain=lifeproof-store.ru&amp;service=SERM&amp;projectId=2637865&amp;strategy=Максимум трафика</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
